--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{519D8FD4-482B-4A42-BB19-17B99F626BFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D718C6-D803-4528-9FE0-95CC569F112F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{519D8FD4-482B-4A42-BB19-17B99F626BFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50B9B5A-38ED-4CFD-941C-1333AE827C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50B9B5A-38ED-4CFD-941C-1333AE827C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D718C6-D803-4528-9FE0-95CC569F112F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0930176B-8AB5-405E-817C-CD0E981FA136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D718C6-D803-4528-9FE0-95CC569F112F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0930176B-8AB5-405E-817C-CD0E981FA136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C549302-8EA0-4E53-9DA8-8D715256ECD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>
@@ -427,41 +427,41 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C549302-8EA0-4E53-9DA8-8D715256ECD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D718C6-D803-4528-9FE0-95CC569F112F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -427,41 +426,41 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{683015A7-605D-4D53-B400-856B2DB4CF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D718C6-D803-4528-9FE0-95CC569F112F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683015A7-605D-4D53-B400-856B2DB4CF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9634303-A06B-4D42-BEE7-B291E79DA0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>

--- a/xtt_demo/zxxt_demo_070_r.xlsx
+++ b/xtt_demo/zxxt_demo_070_r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\moldab\appdata\local\sap\sap gui\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\modekz\appdata\local\sap\sap gui\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9634303-A06B-4D42-BEE7-B291E79DA0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFAAE3CB-3FFF-40C1-A7DD-DF6C777E29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
+    <workbookView xWindow="3768" yWindow="0" windowWidth="15156" windowHeight="16560" xr2:uid="{A03A75B0-C864-49E6-A2B5-6FEC879C5319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,41 +427,41 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
